--- a/Resources/Stage/0002.xlsx
+++ b/Resources/Stage/0002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -500,25 +502,25 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -538,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
